--- a/nov1.xlsx
+++ b/nov1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>rtgt</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>rhdg</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>tgtgt</t>
+  </si>
+  <si>
+    <t>tgtgtg</t>
   </si>
 </sst>
 </file>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I6:I7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +417,9 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
@@ -421,6 +433,9 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
@@ -430,6 +445,11 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
